--- a/data/pca/factorExposure/factorExposure_2010-07-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-15.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01679915228827714</v>
+        <v>-0.01679084719808547</v>
       </c>
       <c r="C2">
-        <v>-0.001254124401414755</v>
+        <v>-0.0008533583909389134</v>
       </c>
       <c r="D2">
-        <v>-0.008403756484598698</v>
+        <v>0.006820554866965154</v>
       </c>
       <c r="E2">
-        <v>0.02802931421956982</v>
+        <v>-0.002457575363392714</v>
       </c>
       <c r="F2">
-        <v>0.01885252675269384</v>
+        <v>0.01144829055604643</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1221976107426521</v>
+        <v>-0.0950748140644541</v>
       </c>
       <c r="C4">
-        <v>0.09009172181328588</v>
+        <v>-0.01814707177987989</v>
       </c>
       <c r="D4">
-        <v>0.001886520566800137</v>
+        <v>0.07702558438448449</v>
       </c>
       <c r="E4">
-        <v>-0.02617460201657193</v>
+        <v>0.02752726040707817</v>
       </c>
       <c r="F4">
-        <v>0.1564434554100176</v>
+        <v>-0.04165563773485977</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1293735763931412</v>
+        <v>-0.1508983435361504</v>
       </c>
       <c r="C6">
-        <v>0.06561011766153951</v>
+        <v>-0.02442424447055551</v>
       </c>
       <c r="D6">
-        <v>0.01662635373717724</v>
+        <v>-0.01732235269547825</v>
       </c>
       <c r="E6">
-        <v>-0.04091378209492188</v>
+        <v>0.01174021221113221</v>
       </c>
       <c r="F6">
-        <v>0.05109765697724465</v>
+        <v>-0.03932416593791915</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07153397183189626</v>
+        <v>-0.06340106160626977</v>
       </c>
       <c r="C7">
-        <v>0.08513004009904424</v>
+        <v>-0.000812091596042161</v>
       </c>
       <c r="D7">
-        <v>-0.006010853343831348</v>
+        <v>0.04974886593600671</v>
       </c>
       <c r="E7">
-        <v>-0.01065665516961709</v>
+        <v>0.01354065268769256</v>
       </c>
       <c r="F7">
-        <v>0.0162988525643117</v>
+        <v>-0.05729181721386617</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.03908808593216431</v>
+        <v>-0.05981928111625964</v>
       </c>
       <c r="C8">
-        <v>0.00972013885236815</v>
+        <v>0.01279495462202887</v>
       </c>
       <c r="D8">
-        <v>-0.01234669674137819</v>
+        <v>0.02720985704968135</v>
       </c>
       <c r="E8">
-        <v>0.02245897733992802</v>
+        <v>0.01029415587027691</v>
       </c>
       <c r="F8">
-        <v>0.1182566276559156</v>
+        <v>0.02181427222131037</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08866510227171816</v>
+        <v>-0.07331617130614365</v>
       </c>
       <c r="C9">
-        <v>0.06196008180845008</v>
+        <v>-0.0150392719566932</v>
       </c>
       <c r="D9">
-        <v>0.0125996576581134</v>
+        <v>0.07428830611019291</v>
       </c>
       <c r="E9">
-        <v>-0.02675880488799702</v>
+        <v>0.02054045144354484</v>
       </c>
       <c r="F9">
-        <v>0.1299907458580493</v>
+        <v>-0.06217654783958631</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.126591385217382</v>
+        <v>-0.09106146631942436</v>
       </c>
       <c r="C10">
-        <v>-0.1831108469404487</v>
+        <v>-0.0127619424844629</v>
       </c>
       <c r="D10">
-        <v>-0.01705632509326789</v>
+        <v>-0.1730606018901527</v>
       </c>
       <c r="E10">
-        <v>-0.007257791455029384</v>
+        <v>-0.03375185332816536</v>
       </c>
       <c r="F10">
-        <v>-0.05551369513690194</v>
+        <v>0.05020307096277001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06599235729236493</v>
+        <v>-0.08884119991066652</v>
       </c>
       <c r="C11">
-        <v>0.05647097029819052</v>
+        <v>-0.01419791462748566</v>
       </c>
       <c r="D11">
-        <v>0.04565812466503864</v>
+        <v>0.1050400485858135</v>
       </c>
       <c r="E11">
-        <v>-0.02133293378073351</v>
+        <v>0.03987980391041955</v>
       </c>
       <c r="F11">
-        <v>0.09941621259863784</v>
+        <v>-0.02884703706492891</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07569047385267036</v>
+        <v>-0.09441529038769687</v>
       </c>
       <c r="C12">
-        <v>0.06697589020052119</v>
+        <v>-0.01193120388385133</v>
       </c>
       <c r="D12">
-        <v>0.05723371844900021</v>
+        <v>0.1086992757891599</v>
       </c>
       <c r="E12">
-        <v>-0.06760608879934615</v>
+        <v>0.03799696044489077</v>
       </c>
       <c r="F12">
-        <v>0.1156799650675428</v>
+        <v>-0.03236686949618427</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04190320682980705</v>
+        <v>-0.04401442594959262</v>
       </c>
       <c r="C13">
-        <v>0.04057572867675352</v>
+        <v>-0.004496232954653714</v>
       </c>
       <c r="D13">
-        <v>-0.02383853157308859</v>
+        <v>0.03643165044221307</v>
       </c>
       <c r="E13">
-        <v>-0.01934967764173473</v>
+        <v>-0.01440782245813373</v>
       </c>
       <c r="F13">
-        <v>0.06743394958140198</v>
+        <v>-0.02271246179970212</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.047673404790091</v>
+        <v>-0.0223412604076098</v>
       </c>
       <c r="C14">
-        <v>0.02991620024149384</v>
+        <v>-0.01513289799807273</v>
       </c>
       <c r="D14">
-        <v>0.005204767533984818</v>
+        <v>0.02668416551480143</v>
       </c>
       <c r="E14">
-        <v>-0.01875155255794204</v>
+        <v>0.01532459652602811</v>
       </c>
       <c r="F14">
-        <v>0.05572255365208333</v>
+        <v>-0.02646384756427811</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02764423006770597</v>
+        <v>-0.03275482024174678</v>
       </c>
       <c r="C15">
-        <v>0.0159856762410189</v>
+        <v>-0.006283304695878629</v>
       </c>
       <c r="D15">
-        <v>-0.07238091727622717</v>
+        <v>0.03695905643588723</v>
       </c>
       <c r="E15">
-        <v>0.02578730913250481</v>
+        <v>0.006871008066941861</v>
       </c>
       <c r="F15">
-        <v>0.0220934263583433</v>
+        <v>-0.03559080388533867</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07995521069718214</v>
+        <v>-0.07625314104287248</v>
       </c>
       <c r="C16">
-        <v>0.07269094486464826</v>
+        <v>-0.005975793930263537</v>
       </c>
       <c r="D16">
-        <v>0.0427118208042019</v>
+        <v>0.1070480605960709</v>
       </c>
       <c r="E16">
-        <v>-0.04970768302673784</v>
+        <v>0.05575554120960043</v>
       </c>
       <c r="F16">
-        <v>0.09784788645530688</v>
+        <v>-0.0372260154453706</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01575935642151183</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004265060584620608</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02661337780185135</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01090920618307255</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03080085567922788</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04552966709747395</v>
+        <v>-0.06191050373441281</v>
       </c>
       <c r="C20">
-        <v>0.02286416185987269</v>
+        <v>-0.003548551850971409</v>
       </c>
       <c r="D20">
-        <v>-0.03286456728935482</v>
+        <v>0.06314351756439909</v>
       </c>
       <c r="E20">
-        <v>-0.04156510072241773</v>
+        <v>0.04931670986795934</v>
       </c>
       <c r="F20">
-        <v>0.05598885269838527</v>
+        <v>-0.03388012768075747</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03238604696530843</v>
+        <v>-0.0379591493218611</v>
       </c>
       <c r="C21">
-        <v>0.02458161674181243</v>
+        <v>-0.008281494733340356</v>
       </c>
       <c r="D21">
-        <v>0.01191583689930989</v>
+        <v>0.03434856203041838</v>
       </c>
       <c r="E21">
-        <v>-0.009819453466274679</v>
+        <v>-0.01268604241428532</v>
       </c>
       <c r="F21">
-        <v>0.06246284619171404</v>
+        <v>0.01561585171406929</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05791271108721457</v>
+        <v>-0.04307122187920978</v>
       </c>
       <c r="C22">
-        <v>0.02612397117196178</v>
+        <v>-0.0007931141616702866</v>
       </c>
       <c r="D22">
-        <v>-0.649108933317284</v>
+        <v>-0.001249145091703764</v>
       </c>
       <c r="E22">
-        <v>-0.1181747283203925</v>
+        <v>0.03512167893478533</v>
       </c>
       <c r="F22">
-        <v>-0.04501506360464739</v>
+        <v>0.02654319894524737</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05849548802075996</v>
+        <v>-0.04310866979604127</v>
       </c>
       <c r="C23">
-        <v>0.02730284397669092</v>
+        <v>-0.0008161157757627841</v>
       </c>
       <c r="D23">
-        <v>-0.6511962133612018</v>
+        <v>-0.001071667539736193</v>
       </c>
       <c r="E23">
-        <v>-0.1198860464074364</v>
+        <v>0.03548595722524242</v>
       </c>
       <c r="F23">
-        <v>-0.03992708343871334</v>
+        <v>0.02596892203776307</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07867152591705542</v>
+        <v>-0.08206497961417226</v>
       </c>
       <c r="C24">
-        <v>0.07038612420971321</v>
+        <v>-0.005871272475573276</v>
       </c>
       <c r="D24">
-        <v>0.03586437943592225</v>
+        <v>0.1095614064746213</v>
       </c>
       <c r="E24">
-        <v>-0.04733901923659119</v>
+        <v>0.04348208931588193</v>
       </c>
       <c r="F24">
-        <v>0.09846876036748028</v>
+        <v>-0.02918667914228872</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0771035092344317</v>
+        <v>-0.08677224691432889</v>
       </c>
       <c r="C25">
-        <v>0.05296741127032201</v>
+        <v>-0.008209645542643374</v>
       </c>
       <c r="D25">
-        <v>0.05655255291427446</v>
+        <v>0.09463413653033943</v>
       </c>
       <c r="E25">
-        <v>-0.04497608580371774</v>
+        <v>0.02530160018470175</v>
       </c>
       <c r="F25">
-        <v>0.1043669650258729</v>
+        <v>-0.03895344933468551</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0437110570177621</v>
+        <v>-0.05683450979229683</v>
       </c>
       <c r="C26">
-        <v>0.01887027170630409</v>
+        <v>-0.01561234823256473</v>
       </c>
       <c r="D26">
-        <v>-0.01286030862337051</v>
+        <v>0.02560178690002161</v>
       </c>
       <c r="E26">
-        <v>-0.0863515398381966</v>
+        <v>0.02342800699271486</v>
       </c>
       <c r="F26">
-        <v>0.06140832709067714</v>
+        <v>-0.003368290828143172</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1507692932440624</v>
+        <v>-0.1364017384235151</v>
       </c>
       <c r="C28">
-        <v>-0.2768548632008958</v>
+        <v>-0.01001596875983791</v>
       </c>
       <c r="D28">
-        <v>0.004668849418231285</v>
+        <v>-0.2782989706417851</v>
       </c>
       <c r="E28">
-        <v>-0.01236842484462359</v>
+        <v>-0.06763398400915076</v>
       </c>
       <c r="F28">
-        <v>0.01819147525569346</v>
+        <v>-0.04948434082053058</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.04241355187055169</v>
+        <v>-0.02758224929071981</v>
       </c>
       <c r="C29">
-        <v>0.02614147301920364</v>
+        <v>-0.009400901508374195</v>
       </c>
       <c r="D29">
-        <v>0.007395174132306707</v>
+        <v>0.02495063088904279</v>
       </c>
       <c r="E29">
-        <v>-0.02397748210105981</v>
+        <v>0.007929175857768062</v>
       </c>
       <c r="F29">
-        <v>0.05066477663764023</v>
+        <v>0.006629617986312061</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08781364999935727</v>
+        <v>-0.06643796988089229</v>
       </c>
       <c r="C30">
-        <v>0.05396946000791696</v>
+        <v>-0.008561232726230068</v>
       </c>
       <c r="D30">
-        <v>0.01788070759384091</v>
+        <v>0.07067952113357617</v>
       </c>
       <c r="E30">
-        <v>-0.2143247885980691</v>
+        <v>0.01936615603510797</v>
       </c>
       <c r="F30">
-        <v>0.2023582254969496</v>
+        <v>-0.1262612020103449</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02925488375144064</v>
+        <v>-0.04863730234367341</v>
       </c>
       <c r="C31">
-        <v>0.05400556876514916</v>
+        <v>-0.0152678243349915</v>
       </c>
       <c r="D31">
-        <v>-0.004116285460967126</v>
+        <v>0.02900307045417069</v>
       </c>
       <c r="E31">
-        <v>-0.01039570550922207</v>
+        <v>0.02606692565037752</v>
       </c>
       <c r="F31">
-        <v>0.04173600806867157</v>
+        <v>0.002571565643174403</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05933412252825169</v>
+        <v>-0.048628858325858</v>
       </c>
       <c r="C32">
-        <v>0.004107837221616315</v>
+        <v>-0.001262201347115681</v>
       </c>
       <c r="D32">
-        <v>0.04278951369239571</v>
+        <v>0.02217961197969429</v>
       </c>
       <c r="E32">
-        <v>0.06774679739516841</v>
+        <v>0.02347734307433276</v>
       </c>
       <c r="F32">
-        <v>0.1000891176280135</v>
+        <v>-0.006899221545127235</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09251566341588212</v>
+        <v>-0.09226793469654808</v>
       </c>
       <c r="C33">
-        <v>0.06555240508208762</v>
+        <v>-0.01130175622532041</v>
       </c>
       <c r="D33">
-        <v>0.02202664618481626</v>
+        <v>0.08518954594462944</v>
       </c>
       <c r="E33">
-        <v>-0.03778862272874856</v>
+        <v>0.04235895683742982</v>
       </c>
       <c r="F33">
-        <v>0.0660854618909848</v>
+        <v>-0.04432077183690418</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06778545494810392</v>
+        <v>-0.06923584612268686</v>
       </c>
       <c r="C34">
-        <v>0.05195589008636623</v>
+        <v>-0.01361694565668138</v>
       </c>
       <c r="D34">
-        <v>0.0501426679909095</v>
+        <v>0.08872745196798101</v>
       </c>
       <c r="E34">
-        <v>-0.03091476756481309</v>
+        <v>0.02659808660492203</v>
       </c>
       <c r="F34">
-        <v>0.08135847072341372</v>
+        <v>-0.05358477201019649</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02098123327917856</v>
+        <v>-0.02442461754451049</v>
       </c>
       <c r="C35">
-        <v>0.01954683828227978</v>
+        <v>-0.002456033385089627</v>
       </c>
       <c r="D35">
-        <v>0.00341251633398147</v>
+        <v>0.009195739117582764</v>
       </c>
       <c r="E35">
-        <v>-0.01807064131673887</v>
+        <v>0.01196834606444837</v>
       </c>
       <c r="F35">
-        <v>0.007471645211527995</v>
+        <v>-0.01303246669363746</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.03080757532836126</v>
+        <v>-0.0264962499874015</v>
       </c>
       <c r="C36">
-        <v>0.02057233109780849</v>
+        <v>-0.007223921755081857</v>
       </c>
       <c r="D36">
-        <v>-0.01404976049025224</v>
+        <v>0.03820201489116758</v>
       </c>
       <c r="E36">
-        <v>-0.04740267359124994</v>
+        <v>0.01616533471811621</v>
       </c>
       <c r="F36">
-        <v>0.0710188230174493</v>
+        <v>-0.01348977077947054</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02713351006960432</v>
+        <v>-0.0032377925214386</v>
       </c>
       <c r="C38">
-        <v>0.05450380594691544</v>
+        <v>-0.0006206487569593555</v>
       </c>
       <c r="D38">
-        <v>-0.0211047124876744</v>
+        <v>0.003740413828453702</v>
       </c>
       <c r="E38">
-        <v>-0.03123773495425061</v>
+        <v>0.004538229187056811</v>
       </c>
       <c r="F38">
-        <v>-0.1217966806980033</v>
+        <v>0.003649567719215368</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09527348066601585</v>
+        <v>-0.1124485355301925</v>
       </c>
       <c r="C39">
-        <v>0.07702565426259662</v>
+        <v>-0.02003024211661204</v>
       </c>
       <c r="D39">
-        <v>0.1243125745492485</v>
+        <v>0.1417553541481655</v>
       </c>
       <c r="E39">
-        <v>-0.1523084776448821</v>
+        <v>0.04799816384433274</v>
       </c>
       <c r="F39">
-        <v>0.09293162846075494</v>
+        <v>-0.04242233552951881</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02873708646780487</v>
+        <v>-0.03750971165919359</v>
       </c>
       <c r="C40">
-        <v>0.06267698247800092</v>
+        <v>-0.007942176076340105</v>
       </c>
       <c r="D40">
-        <v>-0.02400180839514891</v>
+        <v>0.02403187994099446</v>
       </c>
       <c r="E40">
-        <v>0.04442365048171368</v>
+        <v>0.001885270211333941</v>
       </c>
       <c r="F40">
-        <v>0.09764518380065812</v>
+        <v>0.01471528304868786</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03129261649373058</v>
+        <v>-0.02657516670038999</v>
       </c>
       <c r="C41">
-        <v>0.02464856502114018</v>
+        <v>-0.006794897376960059</v>
       </c>
       <c r="D41">
-        <v>0.02532831524811043</v>
+        <v>0.01122921933711869</v>
       </c>
       <c r="E41">
-        <v>-0.02132060613195161</v>
+        <v>0.01056410146630425</v>
       </c>
       <c r="F41">
-        <v>-0.008150472530728215</v>
+        <v>0.01216676579082267</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04730711043970492</v>
+        <v>-0.04336314500076734</v>
       </c>
       <c r="C43">
-        <v>0.04898752853472243</v>
+        <v>-0.007340730413086484</v>
       </c>
       <c r="D43">
-        <v>-0.009986479580532838</v>
+        <v>0.02081778694743569</v>
       </c>
       <c r="E43">
-        <v>-0.05815126088197411</v>
+        <v>0.02530273236473052</v>
       </c>
       <c r="F43">
-        <v>0.00389969479921094</v>
+        <v>0.0111840783307494</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09335863993081157</v>
+        <v>-0.07391275697509364</v>
       </c>
       <c r="C44">
-        <v>0.07703564348544087</v>
+        <v>-0.02441236898833619</v>
       </c>
       <c r="D44">
-        <v>-0.06384393630264393</v>
+        <v>0.09267620207910757</v>
       </c>
       <c r="E44">
-        <v>-0.007161074011015754</v>
+        <v>0.06216385758322059</v>
       </c>
       <c r="F44">
-        <v>0.1521362292644868</v>
+        <v>-0.1856332052427211</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.04245385962844943</v>
+        <v>-0.02441965579924554</v>
       </c>
       <c r="C46">
-        <v>0.03938874041255395</v>
+        <v>-0.004157745111867783</v>
       </c>
       <c r="D46">
-        <v>-0.05116539694591955</v>
+        <v>0.008046326850272184</v>
       </c>
       <c r="E46">
-        <v>0.00128270906140698</v>
+        <v>0.02317672187165755</v>
       </c>
       <c r="F46">
-        <v>0.03428700537292053</v>
+        <v>0.003861348474163471</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05318489064897578</v>
+        <v>-0.05322539273168</v>
       </c>
       <c r="C47">
-        <v>0.04256983147781105</v>
+        <v>-0.003435567126032785</v>
       </c>
       <c r="D47">
-        <v>-0.003562753870301716</v>
+        <v>0.01368439150127348</v>
       </c>
       <c r="E47">
-        <v>-0.02797770932439636</v>
+        <v>0.02277186317098338</v>
       </c>
       <c r="F47">
-        <v>0.006933752861310393</v>
+        <v>0.04838153624967796</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04842195420945341</v>
+        <v>-0.04807288558968751</v>
       </c>
       <c r="C48">
-        <v>0.01570799708898793</v>
+        <v>-0.003410106839453531</v>
       </c>
       <c r="D48">
-        <v>0.01143416509068845</v>
+        <v>0.0416865635930213</v>
       </c>
       <c r="E48">
-        <v>-0.009767577866755679</v>
+        <v>-0.008769853787470193</v>
       </c>
       <c r="F48">
-        <v>0.08713395592736069</v>
+        <v>-0.01955037235539799</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2358763088439926</v>
+        <v>-0.2078818350126717</v>
       </c>
       <c r="C49">
-        <v>0.06090752485623073</v>
+        <v>-0.01706893909207822</v>
       </c>
       <c r="D49">
-        <v>0.03733679251283669</v>
+        <v>-0.006334510851677824</v>
       </c>
       <c r="E49">
-        <v>0.1203637723446869</v>
+        <v>0.04251016364136636</v>
       </c>
       <c r="F49">
-        <v>-0.2939547122951841</v>
+        <v>-0.03282166332387787</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03784281316625916</v>
+        <v>-0.04869089215472097</v>
       </c>
       <c r="C50">
-        <v>0.04504556788644917</v>
+        <v>-0.01153143521164164</v>
       </c>
       <c r="D50">
-        <v>0.01200885232524588</v>
+        <v>0.02837509209669236</v>
       </c>
       <c r="E50">
-        <v>-0.04766846523608836</v>
+        <v>0.02816043463307611</v>
       </c>
       <c r="F50">
-        <v>0.0462026041753572</v>
+        <v>-0.00580582570588889</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.03320185605046822</v>
+        <v>-0.003698169177805112</v>
       </c>
       <c r="C51">
-        <v>0.003485764720910933</v>
+        <v>-0.0008489371861177545</v>
       </c>
       <c r="D51">
-        <v>0.001729880409982501</v>
+        <v>-0.001489173611652312</v>
       </c>
       <c r="E51">
-        <v>0.03318520460088911</v>
+        <v>0.001746968512376251</v>
       </c>
       <c r="F51">
-        <v>-0.05505133430755167</v>
+        <v>-0.003819919168820504</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.01476196565318126</v>
+        <v>-0.1404145303316058</v>
       </c>
       <c r="C52">
-        <v>0.00596343281204082</v>
+        <v>-0.01249036801208375</v>
       </c>
       <c r="D52">
-        <v>0.02360688896129729</v>
+        <v>0.05304613573758605</v>
       </c>
       <c r="E52">
-        <v>-0.004113406179051779</v>
+        <v>0.01517348501512049</v>
       </c>
       <c r="F52">
-        <v>0.007293236448256679</v>
+        <v>-0.02790578316176692</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1461023129749717</v>
+        <v>-0.1724130097813921</v>
       </c>
       <c r="C53">
-        <v>0.0571734491735514</v>
+        <v>-0.01521878368966838</v>
       </c>
       <c r="D53">
-        <v>-0.009109229940314647</v>
+        <v>0.02123278105827808</v>
       </c>
       <c r="E53">
-        <v>-0.02689433893274277</v>
+        <v>0.03908411107800168</v>
       </c>
       <c r="F53">
-        <v>-0.1100601209992281</v>
+        <v>-0.05472784486102324</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0606714534584116</v>
+        <v>-0.02227246678807427</v>
       </c>
       <c r="C54">
-        <v>0.03260539764776574</v>
+        <v>-0.01310256788584557</v>
       </c>
       <c r="D54">
-        <v>-0.01156741520131142</v>
+        <v>0.02795329604464157</v>
       </c>
       <c r="E54">
-        <v>-0.02597894917620437</v>
+        <v>0.01543162305392973</v>
       </c>
       <c r="F54">
-        <v>0.1495059694577516</v>
+        <v>-0.001511920899514706</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08203445223341663</v>
+        <v>-0.1138815435410543</v>
       </c>
       <c r="C55">
-        <v>0.04841359880536963</v>
+        <v>-0.01440400738984949</v>
       </c>
       <c r="D55">
-        <v>0.03167106858860234</v>
+        <v>0.01874211680649572</v>
       </c>
       <c r="E55">
-        <v>-0.01210332160603861</v>
+        <v>0.02998007298660779</v>
       </c>
       <c r="F55">
-        <v>-0.02129363743309538</v>
+        <v>-0.04633288074359013</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1363680574563873</v>
+        <v>-0.1768936692315701</v>
       </c>
       <c r="C56">
-        <v>0.09146089982173174</v>
+        <v>-0.01251547152229167</v>
       </c>
       <c r="D56">
-        <v>0.01674503579900904</v>
+        <v>0.02017690221296225</v>
       </c>
       <c r="E56">
-        <v>-0.03950318424860967</v>
+        <v>0.04313466885707314</v>
       </c>
       <c r="F56">
-        <v>-0.05090425671296522</v>
+        <v>-0.02325338715526814</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03650831877383889</v>
+        <v>-0.04745121739711244</v>
       </c>
       <c r="C58">
-        <v>0.02860406361785548</v>
+        <v>-0.003956187970059072</v>
       </c>
       <c r="D58">
-        <v>-0.03080732444101106</v>
+        <v>0.05953417995387261</v>
       </c>
       <c r="E58">
-        <v>-0.03417732104597562</v>
+        <v>0.01300934773424908</v>
       </c>
       <c r="F58">
-        <v>0.02533340250025854</v>
+        <v>0.04178455246879743</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2127606897286945</v>
+        <v>-0.1703037911344069</v>
       </c>
       <c r="C59">
-        <v>-0.2422126690729016</v>
+        <v>-0.01185626380465393</v>
       </c>
       <c r="D59">
-        <v>0.0465874726790968</v>
+        <v>-0.2348450233243282</v>
       </c>
       <c r="E59">
-        <v>0.04596858594542918</v>
+        <v>-0.04649868882607923</v>
       </c>
       <c r="F59">
-        <v>-0.002068680786916216</v>
+        <v>0.02867451870460859</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2346294381337679</v>
+        <v>-0.2403656337595441</v>
       </c>
       <c r="C60">
-        <v>0.1370626218096159</v>
+        <v>0.00438982853875344</v>
       </c>
       <c r="D60">
-        <v>0.07823387081671798</v>
+        <v>0.05712057507917896</v>
       </c>
       <c r="E60">
-        <v>0.06201004816804621</v>
+        <v>0.01290944321567791</v>
       </c>
       <c r="F60">
-        <v>-0.1296925929772848</v>
+        <v>0.04828354174301833</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09425506879776534</v>
+        <v>-0.0863637297556452</v>
       </c>
       <c r="C61">
-        <v>0.06636472447040344</v>
+        <v>-0.01524012461612935</v>
       </c>
       <c r="D61">
-        <v>0.07071637332366829</v>
+        <v>0.102589649409321</v>
       </c>
       <c r="E61">
-        <v>-0.09945044314638481</v>
+        <v>0.03338382417809118</v>
       </c>
       <c r="F61">
-        <v>0.1103488664073366</v>
+        <v>-0.02735102726296604</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1337615606103773</v>
+        <v>-0.1683504363675302</v>
       </c>
       <c r="C62">
-        <v>0.07868912993745759</v>
+        <v>-0.01641984935005321</v>
       </c>
       <c r="D62">
-        <v>0.008430970985894081</v>
+        <v>0.01919042868146066</v>
       </c>
       <c r="E62">
-        <v>-0.02510421836118782</v>
+        <v>0.03875397799827839</v>
       </c>
       <c r="F62">
-        <v>-0.0611247869961152</v>
+        <v>-0.009915966083495703</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04447831624985859</v>
+        <v>-0.04303021497270468</v>
       </c>
       <c r="C63">
-        <v>0.01766447571688208</v>
+        <v>-0.004611959157920086</v>
       </c>
       <c r="D63">
-        <v>0.009682534916143713</v>
+        <v>0.04383804380971167</v>
       </c>
       <c r="E63">
-        <v>-0.05262521873412059</v>
+        <v>0.01328824068188274</v>
       </c>
       <c r="F63">
-        <v>0.0537759888625325</v>
+        <v>-0.01375721354157585</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09904180459414635</v>
+        <v>-0.1123711850722719</v>
       </c>
       <c r="C64">
-        <v>0.05648004220915595</v>
+        <v>-0.01218889035283412</v>
       </c>
       <c r="D64">
-        <v>0.005189250280295122</v>
+        <v>0.03795966434050133</v>
       </c>
       <c r="E64">
-        <v>-0.05393074032890755</v>
+        <v>0.01888459620435255</v>
       </c>
       <c r="F64">
-        <v>0.03975601004944226</v>
+        <v>-0.01600395398133761</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1229901091515975</v>
+        <v>-0.1421662238616493</v>
       </c>
       <c r="C65">
-        <v>0.03871970106123845</v>
+        <v>-0.03059823630812925</v>
       </c>
       <c r="D65">
-        <v>0.02898660119141088</v>
+        <v>-0.04320550586797942</v>
       </c>
       <c r="E65">
-        <v>-0.07984091905684178</v>
+        <v>0.003180376671900403</v>
       </c>
       <c r="F65">
-        <v>0.07368790138016813</v>
+        <v>-0.04128875380955521</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1071819605211138</v>
+        <v>-0.134616352822166</v>
       </c>
       <c r="C66">
-        <v>0.1126444784656498</v>
+        <v>-0.01753486643026922</v>
       </c>
       <c r="D66">
-        <v>0.1218044135136076</v>
+        <v>0.129463022670099</v>
       </c>
       <c r="E66">
-        <v>-0.142751676922406</v>
+        <v>0.05800541510571856</v>
       </c>
       <c r="F66">
-        <v>0.08025095491601886</v>
+        <v>-0.0459565802503493</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.08149015698935225</v>
+        <v>-0.06599659606292421</v>
       </c>
       <c r="C67">
-        <v>0.06708517774007743</v>
+        <v>-0.004376121243183036</v>
       </c>
       <c r="D67">
-        <v>-0.02240662574781469</v>
+        <v>0.05598230124532414</v>
       </c>
       <c r="E67">
-        <v>-0.06181859095291751</v>
+        <v>0.01950832477222291</v>
       </c>
       <c r="F67">
-        <v>-0.1122345908385656</v>
+        <v>0.04403805762432209</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1287660917248458</v>
+        <v>-0.1105910714991714</v>
       </c>
       <c r="C68">
-        <v>-0.2729891173015638</v>
+        <v>-0.02088372595103693</v>
       </c>
       <c r="D68">
-        <v>0.01850634770728</v>
+        <v>-0.2754887713472589</v>
       </c>
       <c r="E68">
-        <v>-0.04158570980410299</v>
+        <v>-0.08519586107932739</v>
       </c>
       <c r="F68">
-        <v>0.02897724318756889</v>
+        <v>-0.0520938077755324</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0434106209952872</v>
+        <v>-0.0406954499178019</v>
       </c>
       <c r="C69">
-        <v>0.01803065310169251</v>
+        <v>-0.001146962014908785</v>
       </c>
       <c r="D69">
-        <v>-0.01051354918267516</v>
+        <v>0.008331797851805768</v>
       </c>
       <c r="E69">
-        <v>-0.03707037333044595</v>
+        <v>0.02613387057024849</v>
       </c>
       <c r="F69">
-        <v>-0.02036196097780873</v>
+        <v>0.01755062195645393</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05552259283719077</v>
+        <v>-0.0654346827195455</v>
       </c>
       <c r="C70">
-        <v>0.05672302405773472</v>
+        <v>0.0269928001688376</v>
       </c>
       <c r="D70">
-        <v>0.0259009288534038</v>
+        <v>0.004163048533899781</v>
       </c>
       <c r="E70">
-        <v>-0.04536611041731754</v>
+        <v>-0.04359799650717442</v>
       </c>
       <c r="F70">
-        <v>0.05115575589446659</v>
+        <v>0.3352240990729691</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1464171434757507</v>
+        <v>-0.1294023559341132</v>
       </c>
       <c r="C71">
-        <v>-0.2789674108716222</v>
+        <v>-0.02431620997363627</v>
       </c>
       <c r="D71">
-        <v>0.01245529018135576</v>
+        <v>-0.2912837050726285</v>
       </c>
       <c r="E71">
-        <v>-0.05115510772166147</v>
+        <v>-0.09274770985333175</v>
       </c>
       <c r="F71">
-        <v>0.03932649174970496</v>
+        <v>-0.05470851878634719</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1270029497998247</v>
+        <v>-0.1383071362775893</v>
       </c>
       <c r="C72">
-        <v>0.02958048933728991</v>
+        <v>-0.02397119863251219</v>
       </c>
       <c r="D72">
-        <v>0.0126207137338505</v>
+        <v>0.01092043723921583</v>
       </c>
       <c r="E72">
-        <v>-0.07630403522202735</v>
+        <v>0.04227332193921734</v>
       </c>
       <c r="F72">
-        <v>0.005511175738249479</v>
+        <v>-0.02512381444539179</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.217346492868991</v>
+        <v>-0.2102746172614578</v>
       </c>
       <c r="C73">
-        <v>0.1316028511242561</v>
+        <v>-0.01175843671431311</v>
       </c>
       <c r="D73">
-        <v>0.1378406186381222</v>
+        <v>0.02557249787185169</v>
       </c>
       <c r="E73">
-        <v>0.1147921566311881</v>
+        <v>0.072489387993417</v>
       </c>
       <c r="F73">
-        <v>-0.4537369311404726</v>
+        <v>-0.02019044250640223</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08667849718990846</v>
+        <v>-0.09391584948756986</v>
       </c>
       <c r="C74">
-        <v>0.08744550901398397</v>
+        <v>-0.01170375447466926</v>
       </c>
       <c r="D74">
-        <v>0.006266652537109514</v>
+        <v>0.02987201343104429</v>
       </c>
       <c r="E74">
-        <v>-0.06401384709379961</v>
+        <v>0.05228936825551719</v>
       </c>
       <c r="F74">
-        <v>-0.06829044027557477</v>
+        <v>-0.03888107038284386</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08622831224006723</v>
+        <v>-0.1297709919564169</v>
       </c>
       <c r="C75">
-        <v>0.06240209970883953</v>
+        <v>-0.02585060617743294</v>
       </c>
       <c r="D75">
-        <v>0.004822106883375723</v>
+        <v>0.04025700387856113</v>
       </c>
       <c r="E75">
-        <v>-0.01199670743545973</v>
+        <v>0.05965231786749801</v>
       </c>
       <c r="F75">
-        <v>-0.01782969081347954</v>
+        <v>-0.004311542647272666</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.08086534681743723</v>
+        <v>-0.009372509796495026</v>
       </c>
       <c r="C76">
-        <v>0.0787859395011339</v>
+        <v>-0.002074214397938329</v>
       </c>
       <c r="D76">
-        <v>-0.002089086524421537</v>
+        <v>0.004385072259118348</v>
       </c>
       <c r="E76">
-        <v>0.0123319497466983</v>
+        <v>0.009725581390374537</v>
       </c>
       <c r="F76">
-        <v>-0.06749741037925092</v>
+        <v>-0.002781598577104337</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06834557704052682</v>
+        <v>-0.08131508612197845</v>
       </c>
       <c r="C77">
-        <v>0.01475337528830839</v>
+        <v>-0.01229525699924274</v>
       </c>
       <c r="D77">
-        <v>0.04141587399138068</v>
+        <v>0.09751044484445033</v>
       </c>
       <c r="E77">
-        <v>-0.05723096533490346</v>
+        <v>0.03026381443913786</v>
       </c>
       <c r="F77">
-        <v>0.281322001317624</v>
+        <v>-0.04246058038788162</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1897483725249853</v>
+        <v>-0.1109812145384919</v>
       </c>
       <c r="C78">
-        <v>0.1457064486951939</v>
+        <v>-0.044723749273931</v>
       </c>
       <c r="D78">
-        <v>-0.1696930295234346</v>
+        <v>0.1158342988042353</v>
       </c>
       <c r="E78">
-        <v>0.5555386560555113</v>
+        <v>0.09063708280251051</v>
       </c>
       <c r="F78">
-        <v>0.3284383678052324</v>
+        <v>-0.07613046535762183</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1302719551988362</v>
+        <v>-0.1623038955560323</v>
       </c>
       <c r="C79">
-        <v>0.07872178124738317</v>
+        <v>-0.01986992061843034</v>
       </c>
       <c r="D79">
-        <v>-0.007601039486760921</v>
+        <v>0.02467002472950504</v>
       </c>
       <c r="E79">
-        <v>-0.03384691604388185</v>
+        <v>0.04919936486720565</v>
       </c>
       <c r="F79">
-        <v>-0.02744259865267764</v>
+        <v>-0.003154692235612285</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07031771090969577</v>
+        <v>-0.08015267651547726</v>
       </c>
       <c r="C80">
-        <v>0.03949158030276333</v>
+        <v>0.001362756327223869</v>
       </c>
       <c r="D80">
-        <v>0.07984485324217794</v>
+        <v>0.0523699506777142</v>
       </c>
       <c r="E80">
-        <v>-0.06046040042361484</v>
+        <v>0.02768718061633258</v>
       </c>
       <c r="F80">
-        <v>-0.01175286096340435</v>
+        <v>0.01059433960361895</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.119370217600023</v>
+        <v>-0.1217899439201275</v>
       </c>
       <c r="C81">
-        <v>0.04805017792638598</v>
+        <v>-0.029484353052346</v>
       </c>
       <c r="D81">
-        <v>-0.01190134468359738</v>
+        <v>0.03018958466426709</v>
       </c>
       <c r="E81">
-        <v>-0.04979126447656784</v>
+        <v>0.05896537207512447</v>
       </c>
       <c r="F81">
-        <v>0.01094519205957397</v>
+        <v>0.006912859792882492</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1202618983753964</v>
+        <v>-0.162326249121198</v>
       </c>
       <c r="C82">
-        <v>0.05856702379248309</v>
+        <v>-0.02031736322374332</v>
       </c>
       <c r="D82">
-        <v>0.003576347594673484</v>
+        <v>0.02362262908060676</v>
       </c>
       <c r="E82">
-        <v>-0.07527637490676854</v>
+        <v>0.03543673435429743</v>
       </c>
       <c r="F82">
-        <v>-0.05200239249635345</v>
+        <v>-0.0489469452059012</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08556927883097964</v>
+        <v>-0.06630669258621795</v>
       </c>
       <c r="C83">
-        <v>0.08262267812956077</v>
+        <v>-0.004425729005399922</v>
       </c>
       <c r="D83">
-        <v>0.01109854023887868</v>
+        <v>0.04568858660169635</v>
       </c>
       <c r="E83">
-        <v>-0.09596407332853853</v>
+        <v>0.003092872991959439</v>
       </c>
       <c r="F83">
-        <v>-0.02784407838751839</v>
+        <v>0.02955517427499875</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.04245596627481359</v>
+        <v>-0.06095202038381638</v>
       </c>
       <c r="C84">
-        <v>-0.05203559424771922</v>
+        <v>-0.0120135259313191</v>
       </c>
       <c r="D84">
-        <v>0.0388961260307658</v>
+        <v>0.0579188345332322</v>
       </c>
       <c r="E84">
-        <v>0.1551073337560772</v>
+        <v>-0.003823885007156524</v>
       </c>
       <c r="F84">
-        <v>0.1553890199810294</v>
+        <v>-0.01510769341402319</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1198856592084123</v>
+        <v>-0.1374246458011909</v>
       </c>
       <c r="C85">
-        <v>0.05384567106501884</v>
+        <v>-0.02518494496228955</v>
       </c>
       <c r="D85">
-        <v>0.009040488968250633</v>
+        <v>0.02294416352165501</v>
       </c>
       <c r="E85">
-        <v>-0.03900643340125404</v>
+        <v>0.04119514237208574</v>
       </c>
       <c r="F85">
-        <v>-0.05209005206892574</v>
+        <v>-0.03708288823101343</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08536293637225417</v>
+        <v>-0.09977192823790285</v>
       </c>
       <c r="C86">
-        <v>0.009730332250084042</v>
+        <v>0.006406810667573824</v>
       </c>
       <c r="D86">
-        <v>-0.02878589014598557</v>
+        <v>0.008218970767260345</v>
       </c>
       <c r="E86">
-        <v>0.5303205942961986</v>
+        <v>0.1284750080972586</v>
       </c>
       <c r="F86">
-        <v>0.09552232610259871</v>
+        <v>0.828452138669628</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1176696358021315</v>
+        <v>-0.1024318943069141</v>
       </c>
       <c r="C87">
-        <v>0.06483704140018726</v>
+        <v>-0.02595771120152871</v>
       </c>
       <c r="D87">
-        <v>-0.01907392611573868</v>
+        <v>0.06793332698968133</v>
       </c>
       <c r="E87">
-        <v>-0.01318408692231845</v>
+        <v>-0.05257393334484696</v>
       </c>
       <c r="F87">
-        <v>0.08772122074990078</v>
+        <v>-0.09367477477373005</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06137903535180494</v>
+        <v>-0.06059337482291721</v>
       </c>
       <c r="C88">
-        <v>0.0601272933356875</v>
+        <v>-0.003740427997210811</v>
       </c>
       <c r="D88">
-        <v>0.03814965560023732</v>
+        <v>0.05771596856933169</v>
       </c>
       <c r="E88">
-        <v>-0.02818607443353162</v>
+        <v>0.02378474764676016</v>
       </c>
       <c r="F88">
-        <v>-0.001389715280699519</v>
+        <v>-0.007426652090132359</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2322238758352226</v>
+        <v>-0.1317197739081368</v>
       </c>
       <c r="C89">
-        <v>-0.3706048172767153</v>
+        <v>-0.003675682568634842</v>
       </c>
       <c r="D89">
-        <v>-0.04722658946944099</v>
+        <v>-0.2787925862238615</v>
       </c>
       <c r="E89">
-        <v>0.03954336077012954</v>
+        <v>-0.09092333083715934</v>
       </c>
       <c r="F89">
-        <v>-0.0198531590246646</v>
+        <v>-0.03690553966811282</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.155466207021537</v>
+        <v>-0.140354722160313</v>
       </c>
       <c r="C90">
-        <v>-0.2607177214537072</v>
+        <v>-0.02040356771908446</v>
       </c>
       <c r="D90">
-        <v>0.01027852536666795</v>
+        <v>-0.2769874178199356</v>
       </c>
       <c r="E90">
-        <v>-0.028108693808019</v>
+        <v>-0.105083139037158</v>
       </c>
       <c r="F90">
-        <v>0.005607795017635584</v>
+        <v>-0.04210663960487072</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07373648702405138</v>
+        <v>-0.1164300448142919</v>
       </c>
       <c r="C91">
-        <v>0.06056182466457708</v>
+        <v>-0.01588968451941626</v>
       </c>
       <c r="D91">
-        <v>-0.007429897072641953</v>
+        <v>0.004793590741911703</v>
       </c>
       <c r="E91">
-        <v>0.01842163559869486</v>
+        <v>0.05957320867780847</v>
       </c>
       <c r="F91">
-        <v>-0.005154312386793542</v>
+        <v>0.03332691297421742</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1697164323556601</v>
+        <v>-0.144244821721</v>
       </c>
       <c r="C92">
-        <v>-0.297680096996349</v>
+        <v>-0.01128972854164894</v>
       </c>
       <c r="D92">
-        <v>-0.0277793668128848</v>
+        <v>-0.3125634359521431</v>
       </c>
       <c r="E92">
-        <v>-0.009544173904874735</v>
+        <v>-0.09927305093141593</v>
       </c>
       <c r="F92">
-        <v>0.03644602853935497</v>
+        <v>-0.03265989063596201</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1703569044237437</v>
+        <v>-0.1457342887156788</v>
       </c>
       <c r="C93">
-        <v>-0.3059273696504151</v>
+        <v>-0.01665721596196558</v>
       </c>
       <c r="D93">
-        <v>0.04075565831680596</v>
+        <v>-0.2806372941881606</v>
       </c>
       <c r="E93">
-        <v>-0.009003291231139262</v>
+        <v>-0.0697492303562209</v>
       </c>
       <c r="F93">
-        <v>0.01325089090596377</v>
+        <v>-0.03126112957471912</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1149885342588126</v>
+        <v>-0.1331429490664336</v>
       </c>
       <c r="C94">
-        <v>0.08174124120990267</v>
+        <v>-0.02343395662455485</v>
       </c>
       <c r="D94">
-        <v>-0.005618064454435702</v>
+        <v>0.05242380846307567</v>
       </c>
       <c r="E94">
-        <v>-0.01785753623068244</v>
+        <v>0.06171415723488656</v>
       </c>
       <c r="F94">
-        <v>-0.05634928645502518</v>
+        <v>-0.0228412989941076</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1469637778178404</v>
+        <v>-0.1276592934806293</v>
       </c>
       <c r="C95">
-        <v>0.05878075713874788</v>
+        <v>-0.006633826605736072</v>
       </c>
       <c r="D95">
-        <v>-0.01287080251914441</v>
+        <v>0.0868463420494018</v>
       </c>
       <c r="E95">
-        <v>0.05654865581631529</v>
+        <v>0.03983933972285929</v>
       </c>
       <c r="F95">
-        <v>0.0798828922659046</v>
+        <v>0.007169533759394019</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09440417006280634</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9894374718074123</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.01170283769341061</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06080783231069328</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05037528488058249</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1179611076929402</v>
+        <v>-0.1871713287027662</v>
       </c>
       <c r="C97">
-        <v>-0.01668616255041512</v>
+        <v>0.01300704173970261</v>
       </c>
       <c r="D97">
-        <v>-0.01203745095805312</v>
+        <v>-0.007681440729861835</v>
       </c>
       <c r="E97">
-        <v>-0.3020555850879102</v>
+        <v>0.01356367957646642</v>
       </c>
       <c r="F97">
-        <v>0.05017523454456661</v>
+        <v>0.1699902282690513</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2538583190655018</v>
+        <v>-0.2075695541541513</v>
       </c>
       <c r="C98">
-        <v>0.1246729231830632</v>
+        <v>-0.007397938258991047</v>
       </c>
       <c r="D98">
-        <v>-0.05962734882984584</v>
+        <v>0.01674680848239861</v>
       </c>
       <c r="E98">
-        <v>0.106212126203749</v>
+        <v>-0.08642036892912187</v>
       </c>
       <c r="F98">
-        <v>-0.2462567482345249</v>
+        <v>0.1454892437193808</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.07409472545034448</v>
+        <v>-0.0578548422406617</v>
       </c>
       <c r="C99">
-        <v>0.05708880022279337</v>
+        <v>0.002905716552176666</v>
       </c>
       <c r="D99">
-        <v>-0.01607869782109372</v>
+        <v>0.02959875940652429</v>
       </c>
       <c r="E99">
-        <v>0.01412536062455046</v>
+        <v>0.02584770761187429</v>
       </c>
       <c r="F99">
-        <v>-0.03189138733043904</v>
+        <v>-0.005373996750737468</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1233336685973496</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04748039534317808</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3229081933490545</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9070858173958454</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05951081235842821</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04253825803192381</v>
+        <v>-0.02745918330639681</v>
       </c>
       <c r="C101">
-        <v>0.02563181167062369</v>
+        <v>-0.009315225447545495</v>
       </c>
       <c r="D101">
-        <v>0.007466636687428892</v>
+        <v>0.02459893312719714</v>
       </c>
       <c r="E101">
-        <v>-0.02167370826240547</v>
+        <v>0.008091035388192147</v>
       </c>
       <c r="F101">
-        <v>0.04897461301186055</v>
+        <v>0.00868775453743866</v>
       </c>
     </row>
     <row r="102" spans="1:6">
